--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_0</t>
+          <t>model_4_7_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9447564123494274</v>
+        <v>0.9869831142052068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7315602417129432</v>
+        <v>0.7270087091163454</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1116996619498301</v>
+        <v>0.9641687027893117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9588483011271812</v>
+        <v>0.9608269263864015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7499991311252536</v>
+        <v>0.9692158890666349</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3694141249927105</v>
+        <v>0.08704397524702991</v>
       </c>
       <c r="H2" t="n">
-        <v>1.795057899716981</v>
+        <v>1.82549401914831</v>
       </c>
       <c r="I2" t="n">
-        <v>1.216176620345757</v>
+        <v>0.1644609555092109</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1854542492336549</v>
+        <v>0.1257169162389199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7008153714554319</v>
+        <v>0.1450888972793448</v>
       </c>
       <c r="L2" t="n">
-        <v>1.557493451686301</v>
+        <v>0.3288839182514964</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6077944759478409</v>
+        <v>0.295032159682686</v>
       </c>
       <c r="N2" t="n">
-        <v>1.011332017979605</v>
+        <v>1.018376779945591</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6336695450969543</v>
+        <v>0.3075922895211429</v>
       </c>
       <c r="P2" t="n">
-        <v>283.9916739485701</v>
+        <v>86.88268365084241</v>
       </c>
       <c r="Q2" t="n">
-        <v>455.8531652549864</v>
+        <v>136.8565924704386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_1</t>
+          <t>model_4_7_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9449148967578406</v>
+        <v>0.9872205559194082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7309659652052147</v>
+        <v>0.7269767941126976</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2148279231723154</v>
+        <v>0.9701989619628323</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9469093297236653</v>
+        <v>0.9638571384956008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7202792823559492</v>
+        <v>0.9731838483683867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3683543390238981</v>
+        <v>0.0854562014108467</v>
       </c>
       <c r="H3" t="n">
-        <v>1.799031829460553</v>
+        <v>1.825707434924659</v>
       </c>
       <c r="I3" t="n">
-        <v>1.328996822139933</v>
+        <v>0.1367828566724889</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2392584186582027</v>
+        <v>0.1159921515784792</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7841275893233407</v>
+        <v>0.1263874691047046</v>
       </c>
       <c r="L3" t="n">
-        <v>1.678371047518235</v>
+        <v>0.3384709842663636</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6069220205462132</v>
+        <v>0.2923289267432265</v>
       </c>
       <c r="N3" t="n">
-        <v>1.011299508357366</v>
+        <v>1.018041568113777</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6327599474626477</v>
+        <v>0.3047739743589871</v>
       </c>
       <c r="P3" t="n">
-        <v>283.9974198526007</v>
+        <v>86.91950259698436</v>
       </c>
       <c r="Q3" t="n">
-        <v>455.8589111590169</v>
+        <v>136.8934114165806</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_2</t>
+          <t>model_4_7_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9441770934832027</v>
+        <v>0.9866200081631468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7295903707371898</v>
+        <v>0.7269343411482034</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3134846514033474</v>
+        <v>0.9576486362451502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9329287252460168</v>
+        <v>0.9576980138512323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6897908518735598</v>
+        <v>0.9649758368524333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3732880329186737</v>
+        <v>0.08947206702223466</v>
       </c>
       <c r="H4" t="n">
-        <v>1.808230436002265</v>
+        <v>1.825991318093708</v>
       </c>
       <c r="I4" t="n">
-        <v>1.436925258588267</v>
+        <v>0.194387205946959</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3022634118481076</v>
+        <v>0.1357584370800681</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8695943352181873</v>
+        <v>0.1650727292469785</v>
       </c>
       <c r="L4" t="n">
-        <v>1.782102326125571</v>
+        <v>0.3197398824508705</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6109730214327582</v>
+        <v>0.2991188175662552</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01145085261883</v>
+        <v>1.018889400240263</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6369834078436608</v>
+        <v>0.3118529248913637</v>
       </c>
       <c r="P4" t="n">
-        <v>283.9708099022397</v>
+        <v>86.82765760544999</v>
       </c>
       <c r="Q4" t="n">
-        <v>455.832301208656</v>
+        <v>136.8015664250462</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_3</t>
+          <t>model_4_7_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9428256368946263</v>
+        <v>0.9873113416795601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7276974442625471</v>
+        <v>0.7268225219672835</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4064354853884642</v>
+        <v>0.9756414603488703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9178171246099459</v>
+        <v>0.9667465019391565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.659506692379912</v>
+        <v>0.9768176475757678</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3823252293493691</v>
+        <v>0.08484911661468052</v>
       </c>
       <c r="H5" t="n">
-        <v>1.820888444054326</v>
+        <v>1.826739053471401</v>
       </c>
       <c r="I5" t="n">
-        <v>1.538611563804972</v>
+        <v>0.1118025027751104</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3703653524105773</v>
+        <v>0.1067194081220866</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9544884581077749</v>
+        <v>0.1092609741711753</v>
       </c>
       <c r="L5" t="n">
-        <v>1.870967209558652</v>
+        <v>0.3485336671200233</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6183245340024679</v>
+        <v>0.2912887169367885</v>
       </c>
       <c r="N5" t="n">
-        <v>1.011728074483154</v>
+        <v>1.017913399981798</v>
       </c>
       <c r="O5" t="n">
-        <v>0.644647889523192</v>
+        <v>0.3036894806675579</v>
       </c>
       <c r="P5" t="n">
-        <v>283.922967293735</v>
+        <v>86.93376139699433</v>
       </c>
       <c r="Q5" t="n">
-        <v>455.7844586001513</v>
+        <v>136.9076702165906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_4</t>
+          <t>model_4_7_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9410728691759752</v>
+        <v>0.9861500887955337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7254840364641892</v>
+        <v>0.7267682267988662</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4930529173939426</v>
+        <v>0.9507293385410965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9022516937475011</v>
+        <v>0.9545049640054806</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6300935535673038</v>
+        <v>0.9605195214425737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3940459951547423</v>
+        <v>0.09261441999724385</v>
       </c>
       <c r="H6" t="n">
-        <v>1.835689512193751</v>
+        <v>1.827102125512613</v>
       </c>
       <c r="I6" t="n">
-        <v>1.633369257204546</v>
+        <v>0.226145875055983</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4405125243053377</v>
+        <v>0.1460057917799998</v>
       </c>
       <c r="K6" t="n">
-        <v>1.036940890754942</v>
+        <v>0.1860758334179914</v>
       </c>
       <c r="L6" t="n">
-        <v>1.94705048202394</v>
+        <v>0.311025151673184</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6277308301770292</v>
+        <v>0.3043261736973076</v>
       </c>
       <c r="N6" t="n">
-        <v>1.012087616579287</v>
+        <v>1.01955281581807</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6544546311996218</v>
+        <v>0.3172819689536283</v>
       </c>
       <c r="P6" t="n">
-        <v>283.8625752750525</v>
+        <v>86.7586208518826</v>
       </c>
       <c r="Q6" t="n">
-        <v>455.7240665814688</v>
+        <v>136.7325296714788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_5</t>
+          <t>model_4_7_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9390768821161516</v>
+        <v>0.9872323205986049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7230950306294947</v>
+        <v>0.7265281654444835</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5731115411807206</v>
+        <v>0.9803908669986275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8867230042578015</v>
+        <v>0.9694462504914105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6019897463220766</v>
+        <v>0.9800494270755313</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4073931698144579</v>
+        <v>0.08537753094688721</v>
       </c>
       <c r="H7" t="n">
-        <v>1.851664805210714</v>
+        <v>1.828707416894751</v>
       </c>
       <c r="I7" t="n">
-        <v>1.720951748986332</v>
+        <v>0.09000334905962984</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5104941175269239</v>
+        <v>0.09805518978788756</v>
       </c>
       <c r="K7" t="n">
-        <v>1.115722937403521</v>
+        <v>0.09402924229216628</v>
       </c>
       <c r="L7" t="n">
-        <v>2.012806755811064</v>
+        <v>0.3590939748101896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6382735853961512</v>
+        <v>0.2921943376365929</v>
       </c>
       <c r="N7" t="n">
-        <v>1.012497049822328</v>
+        <v>1.018024959154911</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6654462133349337</v>
+        <v>0.3046336555154461</v>
       </c>
       <c r="P7" t="n">
-        <v>283.7959530812714</v>
+        <v>86.92134463294376</v>
       </c>
       <c r="Q7" t="n">
-        <v>455.6574443876876</v>
+        <v>136.89525345254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_6</t>
+          <t>model_4_7_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9369532938772565</v>
+        <v>0.9855904301122821</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7206353517318397</v>
+        <v>0.726523614653637</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6466644605203407</v>
+        <v>0.9434931595069579</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8715730676817156</v>
+        <v>0.9512768014281877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5754598276331455</v>
+        <v>0.9558969937583086</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4215936141461744</v>
+        <v>0.09635686018913776</v>
       </c>
       <c r="H8" t="n">
-        <v>1.868112689325113</v>
+        <v>1.828737848054096</v>
       </c>
       <c r="I8" t="n">
-        <v>1.801417133586818</v>
+        <v>0.2593589879163002</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5787688228395463</v>
+        <v>0.1563658326677347</v>
       </c>
       <c r="K8" t="n">
-        <v>1.190092978213182</v>
+        <v>0.2078623143011002</v>
       </c>
       <c r="L8" t="n">
-        <v>2.070042588143536</v>
+        <v>0.302712774836923</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6493024057757483</v>
+        <v>0.3104140141635647</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012932657666204</v>
+        <v>1.020342922194425</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6769445534308957</v>
+        <v>0.3236289813921011</v>
       </c>
       <c r="P8" t="n">
-        <v>283.7274268571636</v>
+        <v>86.67939337187769</v>
       </c>
       <c r="Q8" t="n">
-        <v>455.5889181635799</v>
+        <v>136.6533021914739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_7</t>
+          <t>model_4_7_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9347859042967251</v>
+        <v>0.986958165446661</v>
       </c>
       <c r="C9" t="n">
-        <v>0.718179766763508</v>
+        <v>0.7260745953757984</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7139288164445099</v>
+        <v>0.9843362607363224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8570303624416122</v>
+        <v>0.9718974755517289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5506450777409693</v>
+        <v>0.9828050895451563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4360869582510986</v>
+        <v>0.08721080771030401</v>
       </c>
       <c r="H9" t="n">
-        <v>1.884533197315275</v>
+        <v>1.831740442032546</v>
       </c>
       <c r="I9" t="n">
-        <v>1.875002958839396</v>
+        <v>0.07189450917738827</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6443069793677844</v>
+        <v>0.09018855009985918</v>
       </c>
       <c r="K9" t="n">
-        <v>1.25965496910359</v>
+        <v>0.08104150229027361</v>
       </c>
       <c r="L9" t="n">
-        <v>2.119238405213944</v>
+        <v>0.3701825745457563</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6603688047228599</v>
+        <v>0.2953147604003295</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013377250400672</v>
+        <v>1.018412001722361</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6884820718917898</v>
+        <v>0.3078869211364006</v>
       </c>
       <c r="P9" t="n">
-        <v>283.6598272199794</v>
+        <v>86.87885402823082</v>
       </c>
       <c r="Q9" t="n">
-        <v>455.5213185263956</v>
+        <v>136.8527628478271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_8</t>
+          <t>model_4_7_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9326340360482004</v>
+        <v>0.986461379324271</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7157801466938221</v>
+        <v>0.7254409308498281</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.775232040257581</v>
+        <v>0.9873627208764707</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8432389683769548</v>
+        <v>0.97403093885532</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5275974212329706</v>
+        <v>0.9850051079905193</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4504765111374258</v>
+        <v>0.09053281879821547</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9005794677705</v>
+        <v>1.835977759635467</v>
       </c>
       <c r="I10" t="n">
-        <v>1.942067427872801</v>
+        <v>0.05800345400479284</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7064592768962811</v>
+        <v>0.08334169324910488</v>
       </c>
       <c r="K10" t="n">
-        <v>1.324263352384541</v>
+        <v>0.07067257362694886</v>
       </c>
       <c r="L10" t="n">
-        <v>2.161617764591205</v>
+        <v>0.3818349393331157</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6711754697077552</v>
+        <v>0.3008867208738456</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013818659272164</v>
+        <v>1.019113346836323</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6997487989779725</v>
+        <v>0.3136960915028226</v>
       </c>
       <c r="P10" t="n">
-        <v>283.5948986856653</v>
+        <v>86.80408571071889</v>
       </c>
       <c r="Q10" t="n">
-        <v>455.4563899920815</v>
+        <v>136.7779945303151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_9</t>
+          <t>model_4_7_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9305390563536495</v>
+        <v>0.9857120929479585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7134717456798909</v>
+        <v>0.7246046612859591</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.830949376799168</v>
+        <v>0.9893530258345489</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8302815185543471</v>
+        <v>0.97576494991858</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5063100595811193</v>
+        <v>0.98656460336131</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4644856500013823</v>
+        <v>0.095543300246764</v>
       </c>
       <c r="H11" t="n">
-        <v>1.916015755979867</v>
+        <v>1.841569898059726</v>
       </c>
       <c r="I11" t="n">
-        <v>2.003021050842304</v>
+        <v>0.04886821524311585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7648533212408675</v>
+        <v>0.07777678594191977</v>
       </c>
       <c r="K11" t="n">
-        <v>1.383937186041586</v>
+        <v>0.06332250059251782</v>
       </c>
       <c r="L11" t="n">
-        <v>2.198196456003089</v>
+        <v>0.3940872496935133</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6815318407832331</v>
+        <v>0.3091007930218944</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014248398696687</v>
+        <v>1.020171162897</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7105460622107771</v>
+        <v>0.3222598537076873</v>
       </c>
       <c r="P11" t="n">
-        <v>283.5336492292726</v>
+        <v>86.69635145705499</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.3951405356888</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>model_4_7_10</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9285286180414639</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7112769632065135</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.8814882165289903</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8181952297730952</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4867334410304858</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4779294602521845</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.930692276485386</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.058309504552012</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8193213911709945</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.438815376118106</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.229844576834553</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.6913244247472994</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.014660796299187</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.720755536747637</v>
-      </c>
-      <c r="P12" t="n">
-        <v>283.4765842601495</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>455.3380755665658</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>model_4_7_11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9266203329142201</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7092091508586535</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.9272570105434517</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8069864494260677</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.4687928911571431</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4906901716849089</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.944519747176926</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.1083796261208</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8698348815254823</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.489107253823141</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.257293901984265</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7004928063048962</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.015052239402211</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.7303142352893071</v>
-      </c>
-      <c r="P13" t="n">
-        <v>283.4238847305193</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>455.2853760369356</v>
+        <v>136.6702602766512</v>
       </c>
     </row>
   </sheetData>
